--- a/Probabilities.xlsx
+++ b/Probabilities.xlsx
@@ -17,7 +17,7 @@
     <t>Table 1</t>
   </si>
   <si>
-    <t xml:space="preserve">iter (Note: Outputs are rounded to 2 Decimal Places) </t>
+    <t xml:space="preserve">iter (Note that values are rounded to 2 decimal places) </t>
   </si>
   <si>
     <t>Pr(F1&lt;= mui | NotSpam)</t>
@@ -2454,7 +2454,7 @@
       <c r="HT1" s="2"/>
       <c r="HU1" s="2"/>
     </row>
-    <row r="2" ht="44.25" customHeight="1">
+    <row r="2" ht="56.25" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -3148,40 +3148,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C3" s="6">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="6">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="E3" s="6">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F3" s="6">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G3" s="6">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" s="6">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="I3" s="6">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="6">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="K3" s="6">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="L3" s="6">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="M3" s="6">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
@@ -3196,28 +3196,28 @@
         <v>0.02</v>
       </c>
       <c r="R3" s="6">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="S3" s="6">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="T3" s="6">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="U3" s="6">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="V3" s="6">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="W3" s="6">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="X3" s="6">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="Y3" s="6">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="Z3" s="6">
         <v>0.98</v>
@@ -3226,46 +3226,46 @@
         <v>0.02</v>
       </c>
       <c r="AB3" s="6">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="AC3" s="6">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="AD3" s="6">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AH3" s="6">
         <v>0.93</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AI3" s="6">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AF3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="AI3" s="6">
-        <v>0.08</v>
-      </c>
       <c r="AJ3" s="6">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="AK3" s="6">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AL3" s="6">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AM3" s="6">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AN3" s="6">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AO3" s="6">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AP3" s="6">
         <v>0.95</v>
@@ -3274,10 +3274,10 @@
         <v>0.05</v>
       </c>
       <c r="AR3" s="6">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS3" s="6">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AT3" s="6">
         <v>0.6899999999999999</v>
@@ -3286,34 +3286,34 @@
         <v>0.31</v>
       </c>
       <c r="AV3" s="6">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AW3" s="6">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AX3" s="6">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AY3" s="6">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AZ3" s="6">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="BA3" s="6">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="BB3" s="6">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="BC3" s="6">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="BD3" s="6">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BE3" s="6">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="BF3" s="6">
         <v>0.98</v>
@@ -3322,82 +3322,82 @@
         <v>0.02</v>
       </c>
       <c r="BH3" s="6">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="BI3" s="6">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="BJ3" s="6">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="BK3" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="BL3" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="BM3" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="BN3" s="6">
         <v>0.92</v>
       </c>
-      <c r="BK3" s="6">
+      <c r="BO3" s="6">
         <v>0.08</v>
       </c>
-      <c r="BL3" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="BM3" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="BN3" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="BO3" s="6">
-        <v>0.09</v>
-      </c>
       <c r="BP3" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="BQ3" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="BR3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="BS3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="BT3" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="BU3" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="BV3" s="6">
         <v>0.71</v>
       </c>
-      <c r="BQ3" s="6">
+      <c r="BW3" s="6">
         <v>0.29</v>
       </c>
-      <c r="BR3" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="BS3" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="BT3" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="BU3" s="6">
-        <v>0.29</v>
-      </c>
-      <c r="BV3" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="BW3" s="6">
-        <v>0.37</v>
-      </c>
       <c r="BX3" s="6">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
       <c r="BY3" s="6">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
       <c r="BZ3" s="6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="CA3" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="CB3" s="6">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="CC3" s="6">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="CD3" s="6">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="CE3" s="6">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="CF3" s="6">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="CG3" s="6">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="CH3" s="6">
         <v>0.99</v>
@@ -3406,52 +3406,52 @@
         <v>0.01</v>
       </c>
       <c r="CJ3" s="6">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="CK3" s="6">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="CL3" s="6">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="CM3" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="CN3" s="6">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="CO3" s="6">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="CP3" s="6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="CQ3" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="CR3" s="6">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="CS3" s="6">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="CT3" s="6">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CU3" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="CV3" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="CW3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="CX3" s="6">
         <v>0.74</v>
       </c>
-      <c r="CU3" s="6">
+      <c r="CY3" s="6">
         <v>0.26</v>
-      </c>
-      <c r="CV3" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="CW3" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="CX3" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="CY3" s="6">
-        <v>0.23</v>
       </c>
       <c r="CZ3" s="6">
         <v>0.99</v>
@@ -3460,10 +3460,10 @@
         <v>0.01</v>
       </c>
       <c r="DB3" s="6">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="DC3" s="6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="DD3" s="6">
         <v>1</v>
@@ -3484,22 +3484,22 @@
         <v>0.02</v>
       </c>
       <c r="DJ3" s="6">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="DK3" s="6">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="DL3" s="6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="DM3" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="DN3" s="6">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="DO3" s="6">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="DP3" s="6">
         <v>0.99</v>
@@ -3532,16 +3532,16 @@
         <v>0</v>
       </c>
       <c r="DZ3" s="6">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="EA3" s="6">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="EB3" s="6">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="EC3" s="6">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="ED3" s="6">
         <v>0.92</v>
@@ -3556,40 +3556,40 @@
         <v>0</v>
       </c>
       <c r="EH3" s="6">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="EI3" s="6">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="EJ3" s="6">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="EK3" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="EL3" s="6">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="EM3" s="6">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="EN3" s="6">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="EO3" s="6">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="EP3" s="6">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="EQ3" s="6">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="ER3" s="6">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="ES3" s="6">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="ET3" s="6">
         <v>0.98</v>
@@ -3604,10 +3604,10 @@
         <v>0.02</v>
       </c>
       <c r="EX3" s="6">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="EY3" s="6">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="EZ3" s="6">
         <v>0.97</v>
@@ -3616,10 +3616,10 @@
         <v>0.03</v>
       </c>
       <c r="FB3" s="6">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="FC3" s="6">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="FD3" s="6">
         <v>0.89</v>
@@ -3664,40 +3664,40 @@
         <v>0.05</v>
       </c>
       <c r="FR3" s="6">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="FS3" s="6">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="FT3" s="6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FU3" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="FV3" s="6">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="FW3" s="6">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="FX3" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="FY3" s="6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="FZ3" s="6">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="GA3" s="6">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="GB3" s="6">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="GC3" s="6">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="GD3" s="6">
         <v>0.98</v>
@@ -3730,22 +3730,22 @@
         <v>0.14</v>
       </c>
       <c r="GN3" s="6">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="GO3" s="6">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="GP3" s="6">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="GQ3" s="6">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="GR3" s="6">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="GS3" s="6">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="GT3" s="6">
         <v>0.87</v>
@@ -3760,76 +3760,76 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="GX3" s="6">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="GY3" s="6">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="GZ3" s="6">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="HA3" s="6">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="HB3" s="6">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="HC3" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="HD3" s="6">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
       <c r="HE3" s="6">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="HF3" s="6">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="HG3" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="HH3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="HI3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="HJ3" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="HK3" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="HL3" s="6">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="HM3" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="HN3" s="6">
         <v>0.93</v>
       </c>
-      <c r="HG3" s="6">
+      <c r="HO3" s="6">
         <v>0.07000000000000001</v>
       </c>
-      <c r="HH3" s="6">
+      <c r="HP3" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="HQ3" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="HR3" s="6">
         <v>0.86</v>
       </c>
-      <c r="HI3" s="6">
+      <c r="HS3" s="6">
         <v>0.14</v>
       </c>
-      <c r="HJ3" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="HK3" s="6">
-        <v>0.29</v>
-      </c>
-      <c r="HL3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="HM3" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="HN3" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="HO3" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="HP3" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="HQ3" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="HR3" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="HS3" s="6">
-        <v>0.22</v>
-      </c>
       <c r="HT3" s="6">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="HU3" s="6">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -3837,40 +3837,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C4" s="9">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D4" s="9">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="9">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="F4" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G4" s="9">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" s="9">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="I4" s="9">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="J4" s="9">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K4" s="9">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="L4" s="9">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="M4" s="9">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="N4" s="9">
         <v>1</v>
@@ -3885,28 +3885,28 @@
         <v>0.02</v>
       </c>
       <c r="R4" s="9">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="S4" s="9">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="T4" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="X4" s="9">
         <v>0.65</v>
       </c>
-      <c r="U4" s="9">
+      <c r="Y4" s="9">
         <v>0.35</v>
-      </c>
-      <c r="V4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="W4" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="X4" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>0.3</v>
       </c>
       <c r="Z4" s="9">
         <v>0.98</v>
@@ -3915,46 +3915,46 @@
         <v>0.02</v>
       </c>
       <c r="AB4" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="AJ4" s="9">
         <v>0.72</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AK4" s="9">
         <v>0.28</v>
       </c>
-      <c r="AD4" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="AE4" s="9">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF4" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="AG4" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="AH4" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="AI4" s="9">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJ4" s="9">
-        <v>0.74</v>
-      </c>
-      <c r="AK4" s="9">
-        <v>0.26</v>
-      </c>
       <c r="AL4" s="9">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AM4" s="9">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AN4" s="9">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="AO4" s="9">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="AP4" s="9">
         <v>0.95</v>
@@ -3963,10 +3963,10 @@
         <v>0.05</v>
       </c>
       <c r="AR4" s="9">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS4" s="9">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AT4" s="9">
         <v>0.7</v>
@@ -3981,16 +3981,16 @@
         <v>0.43</v>
       </c>
       <c r="AX4" s="9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AY4" s="9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AZ4" s="9">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="BA4" s="9">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="BB4" s="9">
         <v>0.96</v>
@@ -3999,94 +3999,94 @@
         <v>0.04</v>
       </c>
       <c r="BD4" s="9">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BE4" s="9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="BF4" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="BG4" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="BH4" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="BI4" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="BJ4" s="9">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BK4" s="9">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="BL4" s="9">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="BM4" s="9">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="BN4" s="9">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="BO4" s="9">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BP4" s="9">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="BQ4" s="9">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="BR4" s="9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BS4" s="9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="BT4" s="9">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="BU4" s="9">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="BV4" s="9">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="BW4" s="9">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="BX4" s="9">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="BY4" s="9">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="BZ4" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="CA4" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="CB4" s="9">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="CC4" s="9">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="CD4" s="9">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="CE4" s="9">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="CF4" s="9">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="CG4" s="9">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="CH4" s="9">
         <v>0.99</v>
@@ -4101,16 +4101,16 @@
         <v>0.05</v>
       </c>
       <c r="CL4" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="CM4" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="CN4" s="9">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CO4" s="9">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="CP4" s="9">
         <v>0.98</v>
@@ -4119,52 +4119,52 @@
         <v>0.02</v>
       </c>
       <c r="CR4" s="9">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="CS4" s="9">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="CT4" s="9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CU4" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="CV4" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="CW4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="CX4" s="9">
         <v>0.74</v>
       </c>
-      <c r="CU4" s="9">
+      <c r="CY4" s="9">
         <v>0.26</v>
       </c>
-      <c r="CV4" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="CW4" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="CX4" s="9">
-        <v>0.77</v>
-      </c>
-      <c r="CY4" s="9">
-        <v>0.23</v>
-      </c>
       <c r="CZ4" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="DA4" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="DB4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="DC4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="DD4" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="9">
         <v>0.85</v>
       </c>
-      <c r="DC4" s="9">
+      <c r="DG4" s="9">
         <v>0.15</v>
-      </c>
-      <c r="DD4" s="9">
-        <v>0.99</v>
-      </c>
-      <c r="DE4" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="DF4" s="9">
-        <v>0.86</v>
-      </c>
-      <c r="DG4" s="9">
-        <v>0.14</v>
       </c>
       <c r="DH4" s="9">
         <v>0.98</v>
@@ -4179,16 +4179,16 @@
         <v>0.12</v>
       </c>
       <c r="DL4" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="DM4" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="DN4" s="9">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="DO4" s="9">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="DP4" s="9">
         <v>0.99</v>
@@ -4221,16 +4221,16 @@
         <v>0</v>
       </c>
       <c r="DZ4" s="9">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="EA4" s="9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="EB4" s="9">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="EC4" s="9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="ED4" s="9">
         <v>0.93</v>
@@ -4245,34 +4245,34 @@
         <v>0.01</v>
       </c>
       <c r="EH4" s="9">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="EI4" s="9">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="EJ4" s="9">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="EK4" s="9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="EL4" s="9">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="EM4" s="9">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="EN4" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="EO4" s="9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="EP4" s="9">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="EQ4" s="9">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="ER4" s="9">
         <v>0.95</v>
@@ -4365,28 +4365,28 @@
         <v>0.02</v>
       </c>
       <c r="FV4" s="9">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="FW4" s="9">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="FX4" s="9">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="FY4" s="9">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="FZ4" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="GA4" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="GB4" s="9">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="GC4" s="9">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="GD4" s="9">
         <v>0.98</v>
@@ -4413,28 +4413,28 @@
         <v>0.01</v>
       </c>
       <c r="GL4" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="GM4" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="GN4" s="9">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="GO4" s="9">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="GP4" s="9">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="GQ4" s="9">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="GR4" s="9">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="GS4" s="9">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="GT4" s="9">
         <v>0.87</v>
@@ -4443,82 +4443,82 @@
         <v>0.13</v>
       </c>
       <c r="GV4" s="9">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="GW4" s="9">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="GX4" s="9">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="GY4" s="9">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="GZ4" s="9">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
       <c r="HA4" s="9">
-        <v>0.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="HB4" s="9">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="HC4" s="9">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="HD4" s="9">
-        <v>0.6899999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="HE4" s="9">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="HF4" s="9">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="HG4" s="9">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="HH4" s="9">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="HI4" s="9">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="HJ4" s="9">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="HK4" s="9">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="HL4" s="9">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="HM4" s="9">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="HN4" s="9">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="HO4" s="9">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="HP4" s="9">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="HQ4" s="9">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="HR4" s="9">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="HS4" s="9">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="HT4" s="9">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="HU4" s="9">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -4526,40 +4526,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C5" s="9">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D5" s="9">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="9">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="F5" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G5" s="9">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" s="9">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="I5" s="9">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="J5" s="9">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="9">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="L5" s="9">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="M5" s="9">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="N5" s="9">
         <v>1</v>
@@ -4574,76 +4574,76 @@
         <v>0.02</v>
       </c>
       <c r="R5" s="9">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="9">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="9">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="U5" s="9">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="V5" s="9">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="W5" s="9">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="X5" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="9">
         <v>0.7</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="AG5" s="9">
         <v>0.3</v>
       </c>
-      <c r="Z5" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>0.29</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>0.25</v>
-      </c>
       <c r="AH5" s="9">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI5" s="9">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJ5" s="9">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="AK5" s="9">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="AL5" s="9">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AM5" s="9">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AN5" s="9">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AO5" s="9">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AP5" s="9">
         <v>0.95</v>
@@ -4652,10 +4652,10 @@
         <v>0.05</v>
       </c>
       <c r="AR5" s="9">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS5" s="9">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AT5" s="9">
         <v>0.7</v>
@@ -4670,16 +4670,16 @@
         <v>0.43</v>
       </c>
       <c r="AX5" s="9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AY5" s="9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AZ5" s="9">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="BA5" s="9">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="BB5" s="9">
         <v>0.96</v>
@@ -4694,40 +4694,40 @@
         <v>0.11</v>
       </c>
       <c r="BF5" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="BG5" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="BH5" s="9">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="BI5" s="9">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="BJ5" s="9">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BK5" s="9">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="BL5" s="9">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="BM5" s="9">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="BN5" s="9">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="BO5" s="9">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BP5" s="9">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="BQ5" s="9">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="BR5" s="9">
         <v>0.9</v>
@@ -4736,46 +4736,46 @@
         <v>0.1</v>
       </c>
       <c r="BT5" s="9">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="BU5" s="9">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="BV5" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="BY5" s="9">
         <v>0.63</v>
       </c>
-      <c r="BW5" s="9">
-        <v>0.37</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0.52</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>0.48</v>
-      </c>
       <c r="BZ5" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="CA5" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="CB5" s="9">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="CC5" s="9">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="CD5" s="9">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="CE5" s="9">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="CF5" s="9">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="CG5" s="9">
-        <v>0.42</v>
+        <v>0.65</v>
       </c>
       <c r="CH5" s="9">
         <v>0.99</v>
@@ -4784,22 +4784,22 @@
         <v>0.01</v>
       </c>
       <c r="CJ5" s="9">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="CK5" s="9">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="CL5" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="CM5" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="CN5" s="9">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CO5" s="9">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="CP5" s="9">
         <v>0.98</v>
@@ -4808,40 +4808,40 @@
         <v>0.02</v>
       </c>
       <c r="CR5" s="9">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="CS5" s="9">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="CT5" s="9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CU5" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="CV5" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="CW5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="CX5" s="9">
         <v>0.74</v>
       </c>
-      <c r="CU5" s="9">
+      <c r="CY5" s="9">
         <v>0.26</v>
       </c>
-      <c r="CV5" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="CW5" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="CX5" s="9">
-        <v>0.77</v>
-      </c>
-      <c r="CY5" s="9">
-        <v>0.23</v>
-      </c>
       <c r="CZ5" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="DA5" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="DB5" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="DC5" s="9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="DD5" s="9">
         <v>1</v>
@@ -4850,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="DF5" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="DG5" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="DH5" s="9">
         <v>0.98</v>
@@ -4862,22 +4862,22 @@
         <v>0.02</v>
       </c>
       <c r="DJ5" s="9">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="DK5" s="9">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="DL5" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="DM5" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="DN5" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="DO5" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="DP5" s="9">
         <v>0.99</v>
@@ -4940,10 +4940,10 @@
         <v>0.15</v>
       </c>
       <c r="EJ5" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="EK5" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="EL5" s="9">
         <v>0.84</v>
@@ -4952,22 +4952,22 @@
         <v>0.16</v>
       </c>
       <c r="EN5" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="EO5" s="9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="EP5" s="9">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="EQ5" s="9">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="ER5" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="ES5" s="9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="ET5" s="9">
         <v>0.98</v>
@@ -5048,34 +5048,34 @@
         <v>0.09</v>
       </c>
       <c r="FT5" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="FU5" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="FV5" s="9">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="FW5" s="9">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="FX5" s="9">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="FY5" s="9">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="FZ5" s="9">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="GA5" s="9">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="GB5" s="9">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="GC5" s="9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="GD5" s="9">
         <v>0.98</v>
@@ -5108,106 +5108,106 @@
         <v>0.14</v>
       </c>
       <c r="GN5" s="9">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="GO5" s="9">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="GP5" s="9">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="GQ5" s="9">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="GR5" s="9">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="GS5" s="9">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="GT5" s="9">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="GU5" s="9">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="GV5" s="9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="GW5" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="GX5" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="GY5" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="GZ5" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="HA5" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="HB5" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="HC5" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="HD5" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="HE5" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="HF5" s="9">
         <v>0.93</v>
       </c>
-      <c r="GW5" s="9">
+      <c r="HG5" s="9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="GX5" s="9">
-        <v>0.84</v>
-      </c>
-      <c r="GY5" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="GZ5" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="HA5" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="HB5" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="HC5" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="HD5" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="HE5" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="HF5" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="HG5" s="9">
-        <v>0.08</v>
-      </c>
       <c r="HH5" s="9">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="HI5" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="HJ5" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="HK5" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="HL5" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="HM5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="HN5" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="HO5" s="9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HP5" s="9">
+        <v>0.58</v>
+      </c>
+      <c r="HQ5" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="HR5" s="9">
         <v>0.86</v>
       </c>
-      <c r="HI5" s="9">
+      <c r="HS5" s="9">
         <v>0.14</v>
       </c>
-      <c r="HJ5" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="HK5" s="9">
-        <v>0.29</v>
-      </c>
-      <c r="HL5" s="9">
-        <v>0.89</v>
-      </c>
-      <c r="HM5" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="HN5" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="HO5" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="HP5" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="HQ5" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="HR5" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="HS5" s="9">
-        <v>0.22</v>
-      </c>
       <c r="HT5" s="9">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="HU5" s="9">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -5215,16 +5215,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C6" s="9">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D6" s="9">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E6" s="9">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="F6" s="9">
         <v>0.93</v>
@@ -5233,22 +5233,22 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H6" s="9">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="I6" s="9">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="J6" s="9">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K6" s="9">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="L6" s="9">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="M6" s="9">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="N6" s="9">
         <v>1</v>
@@ -5263,28 +5263,28 @@
         <v>0.02</v>
       </c>
       <c r="R6" s="9">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="S6" s="9">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="T6" s="9">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="U6" s="9">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="V6" s="9">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="W6" s="9">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="X6" s="9">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="Y6" s="9">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="Z6" s="9">
         <v>0.99</v>
@@ -5293,46 +5293,46 @@
         <v>0.01</v>
       </c>
       <c r="AB6" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AJ6" s="9">
         <v>0.73</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AK6" s="9">
         <v>0.27</v>
       </c>
-      <c r="AD6" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="AJ6" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="AK6" s="9">
-        <v>0.25</v>
-      </c>
       <c r="AL6" s="9">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AM6" s="9">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AN6" s="9">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="AO6" s="9">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="AP6" s="9">
         <v>0.95</v>
@@ -5341,10 +5341,10 @@
         <v>0.05</v>
       </c>
       <c r="AR6" s="9">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AS6" s="9">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="AT6" s="9">
         <v>0.7</v>
@@ -5353,22 +5353,22 @@
         <v>0.3</v>
       </c>
       <c r="AV6" s="9">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AW6" s="9">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AX6" s="9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AY6" s="9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AZ6" s="9">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="BA6" s="9">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="BB6" s="9">
         <v>0.96</v>
@@ -5377,10 +5377,10 @@
         <v>0.04</v>
       </c>
       <c r="BD6" s="9">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BE6" s="9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="BF6" s="9">
         <v>0.98</v>
@@ -5395,76 +5395,76 @@
         <v>0.13</v>
       </c>
       <c r="BJ6" s="9">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BK6" s="9">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="BL6" s="9">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="BM6" s="9">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="BN6" s="9">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="BO6" s="9">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BP6" s="9">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="BQ6" s="9">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="BR6" s="9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BS6" s="9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="BT6" s="9">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BU6" s="9">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="BV6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="BY6" s="9">
         <v>0.63</v>
       </c>
-      <c r="BW6" s="9">
-        <v>0.37</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0.53</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0.47</v>
-      </c>
       <c r="BZ6" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="CA6" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="CB6" s="9">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="CC6" s="9">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="CD6" s="9">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="CE6" s="9">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="CF6" s="9">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="CG6" s="9">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="CH6" s="9">
         <v>0.99</v>
@@ -5473,22 +5473,22 @@
         <v>0.01</v>
       </c>
       <c r="CJ6" s="9">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="CK6" s="9">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="CL6" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="CM6" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="CN6" s="9">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CO6" s="9">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="CP6" s="9">
         <v>0.98</v>
@@ -5497,28 +5497,28 @@
         <v>0.02</v>
       </c>
       <c r="CR6" s="9">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="CS6" s="9">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="CT6" s="9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CU6" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="CV6" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="CW6" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="CX6" s="9">
         <v>0.74</v>
       </c>
-      <c r="CU6" s="9">
+      <c r="CY6" s="9">
         <v>0.26</v>
-      </c>
-      <c r="CV6" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="CW6" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="CX6" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="CY6" s="9">
-        <v>0.24</v>
       </c>
       <c r="CZ6" s="9">
         <v>0.99</v>
@@ -5527,10 +5527,10 @@
         <v>0.01</v>
       </c>
       <c r="DB6" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="DC6" s="9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="DD6" s="9">
         <v>1</v>
@@ -5539,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="DF6" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="DG6" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="DH6" s="9">
         <v>0.98</v>
@@ -5557,16 +5557,16 @@
         <v>0.12</v>
       </c>
       <c r="DL6" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="DM6" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="DN6" s="9">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="DO6" s="9">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="DP6" s="9">
         <v>0.99</v>
@@ -5605,10 +5605,10 @@
         <v>0.11</v>
       </c>
       <c r="EB6" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="EC6" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="ED6" s="9">
         <v>0.93</v>
@@ -5629,34 +5629,34 @@
         <v>0.15</v>
       </c>
       <c r="EJ6" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="EK6" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="EL6" s="9">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="EM6" s="9">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="EN6" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="EO6" s="9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="EP6" s="9">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="EQ6" s="9">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="ER6" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="ES6" s="9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="ET6" s="9">
         <v>0.98</v>
@@ -5671,10 +5671,10 @@
         <v>0.02</v>
       </c>
       <c r="EX6" s="9">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="EY6" s="9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="EZ6" s="9">
         <v>0.97</v>
@@ -5689,10 +5689,10 @@
         <v>0.09</v>
       </c>
       <c r="FD6" s="9">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="FE6" s="9">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="FF6" s="9">
         <v>0.9399999999999999</v>
@@ -5725,46 +5725,46 @@
         <v>0.1</v>
       </c>
       <c r="FP6" s="9">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="FQ6" s="9">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="FR6" s="9">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="FS6" s="9">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="FT6" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="FU6" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="FV6" s="9">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="FW6" s="9">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="FX6" s="9">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="FY6" s="9">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="FZ6" s="9">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="GA6" s="9">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="GB6" s="9">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="GC6" s="9">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="GD6" s="9">
         <v>0.98</v>
@@ -5791,28 +5791,28 @@
         <v>0.01</v>
       </c>
       <c r="GL6" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="GM6" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="GN6" s="9">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="GO6" s="9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="GP6" s="9">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="GQ6" s="9">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="GR6" s="9">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="GS6" s="9">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="GT6" s="9">
         <v>0.86</v>
@@ -5821,34 +5821,34 @@
         <v>0.14</v>
       </c>
       <c r="GV6" s="9">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="GW6" s="9">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="GX6" s="9">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="GY6" s="9">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="GZ6" s="9">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="HA6" s="9">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="HB6" s="9">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="HC6" s="9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="HD6" s="9">
-        <v>0.6899999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="HE6" s="9">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="HF6" s="9">
         <v>0.93</v>
@@ -5857,46 +5857,46 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="HH6" s="9">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="HI6" s="9">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="HJ6" s="9">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="HK6" s="9">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="HL6" s="9">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="HM6" s="9">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="HN6" s="9">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="HO6" s="9">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="HP6" s="9">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
       <c r="HQ6" s="9">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="HR6" s="9">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="HS6" s="9">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="HT6" s="9">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="HU6" s="9">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -5904,40 +5904,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C7" s="9">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D7" s="9">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E7" s="9">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="F7" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G7" s="9">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7" s="9">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="I7" s="9">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="J7" s="9">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K7" s="9">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="L7" s="9">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="M7" s="9">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="N7" s="9">
         <v>1</v>
@@ -5952,28 +5952,28 @@
         <v>0.02</v>
       </c>
       <c r="R7" s="9">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="S7" s="9">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="T7" s="9">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="U7" s="9">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="V7" s="9">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="W7" s="9">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="X7" s="9">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="Y7" s="9">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="Z7" s="9">
         <v>0.99</v>
@@ -5982,46 +5982,46 @@
         <v>0.01</v>
       </c>
       <c r="AB7" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="AF7" s="9">
         <v>0.71</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AG7" s="9">
         <v>0.29</v>
       </c>
-      <c r="AD7" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>0.25</v>
-      </c>
       <c r="AH7" s="9">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI7" s="9">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJ7" s="9">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="AK7" s="9">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="AL7" s="9">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AM7" s="9">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AN7" s="9">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AO7" s="9">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="AP7" s="9">
         <v>0.95</v>
@@ -6030,10 +6030,10 @@
         <v>0.05</v>
       </c>
       <c r="AR7" s="9">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AS7" s="9">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="AT7" s="9">
         <v>0.7</v>
@@ -6048,16 +6048,16 @@
         <v>0.43</v>
       </c>
       <c r="AX7" s="9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AY7" s="9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AZ7" s="9">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="BA7" s="9">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="BB7" s="9">
         <v>0.96</v>
@@ -6066,94 +6066,94 @@
         <v>0.04</v>
       </c>
       <c r="BD7" s="9">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="BE7" s="9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="BF7" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="BG7" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="BH7" s="9">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="BI7" s="9">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="BJ7" s="9">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BK7" s="9">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="BL7" s="9">
-        <v>0.7</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BM7" s="9">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="BN7" s="9">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="BO7" s="9">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BP7" s="9">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="BQ7" s="9">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="BR7" s="9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BS7" s="9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="BT7" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="BU7" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="BV7" s="9">
         <v>0.71</v>
       </c>
-      <c r="BU7" s="9">
+      <c r="BW7" s="9">
         <v>0.29</v>
       </c>
-      <c r="BV7" s="9">
-        <v>0.64</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0.36</v>
-      </c>
       <c r="BX7" s="9">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="BY7" s="9">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="BZ7" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="CA7" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="CB7" s="9">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="CC7" s="9">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="CD7" s="9">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="CE7" s="9">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="CF7" s="9">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="CG7" s="9">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="CH7" s="9">
         <v>0.99</v>
@@ -6168,16 +6168,16 @@
         <v>0.05</v>
       </c>
       <c r="CL7" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="CM7" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="CN7" s="9">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CO7" s="9">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="CP7" s="9">
         <v>0.98</v>
@@ -6186,28 +6186,28 @@
         <v>0.02</v>
       </c>
       <c r="CR7" s="9">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="CS7" s="9">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="CT7" s="9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CU7" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="CV7" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="CW7" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="CX7" s="9">
         <v>0.74</v>
       </c>
-      <c r="CU7" s="9">
+      <c r="CY7" s="9">
         <v>0.26</v>
-      </c>
-      <c r="CV7" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="CW7" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="CX7" s="9">
-        <v>0.77</v>
-      </c>
-      <c r="CY7" s="9">
-        <v>0.23</v>
       </c>
       <c r="CZ7" s="9">
         <v>0.99</v>
@@ -6216,10 +6216,10 @@
         <v>0.01</v>
       </c>
       <c r="DB7" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="DC7" s="9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="DD7" s="9">
         <v>1</v>
@@ -6240,22 +6240,22 @@
         <v>0.02</v>
       </c>
       <c r="DJ7" s="9">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="DK7" s="9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="DL7" s="9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="DM7" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="DN7" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="DO7" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="DP7" s="9">
         <v>0.99</v>
@@ -6288,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="DZ7" s="9">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="EA7" s="9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="EB7" s="9">
         <v>0.97</v>
@@ -6312,40 +6312,40 @@
         <v>0.01</v>
       </c>
       <c r="EH7" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="EI7" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="EJ7" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="EK7" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="EL7" s="9">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="EM7" s="9">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="EN7" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="EO7" s="9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="EP7" s="9">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="EQ7" s="9">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="ER7" s="9">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="ES7" s="9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="ET7" s="9">
         <v>0.98</v>
@@ -6420,40 +6420,40 @@
         <v>0.05</v>
       </c>
       <c r="FR7" s="9">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="FS7" s="9">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="FT7" s="9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="FU7" s="9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="FV7" s="9">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="FW7" s="9">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="FX7" s="9">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="FY7" s="9">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="FZ7" s="9">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="GA7" s="9">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="GB7" s="9">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="GC7" s="9">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="GD7" s="9">
         <v>0.99</v>
@@ -6480,28 +6480,28 @@
         <v>0.01</v>
       </c>
       <c r="GL7" s="9">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="GM7" s="9">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="GN7" s="9">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="GO7" s="9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="GP7" s="9">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="GQ7" s="9">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="GR7" s="9">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="GS7" s="9">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="GT7" s="9">
         <v>0.86</v>
@@ -6510,82 +6510,82 @@
         <v>0.14</v>
       </c>
       <c r="GV7" s="9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="GW7" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="GX7" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="GY7" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="GZ7" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="HA7" s="9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="HB7" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="HC7" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="HD7" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="HE7" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="HF7" s="9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="HG7" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="HH7" s="9">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="HI7" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="HJ7" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="HK7" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="HL7" s="9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="HM7" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="HN7" s="9">
         <v>0.93</v>
       </c>
-      <c r="GW7" s="9">
+      <c r="HO7" s="9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="GX7" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="GY7" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="GZ7" s="9">
-        <v>0.68</v>
-      </c>
-      <c r="HA7" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="HB7" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="HC7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="HD7" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="HE7" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="HF7" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="HG7" s="9">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="HH7" s="9">
-        <v>0.87</v>
-      </c>
-      <c r="HI7" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="HJ7" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="HK7" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="HL7" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="HM7" s="9">
-        <v>0.09</v>
-      </c>
-      <c r="HN7" s="9">
-        <v>0.73</v>
-      </c>
-      <c r="HO7" s="9">
-        <v>0.27</v>
-      </c>
       <c r="HP7" s="9">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="HQ7" s="9">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="HR7" s="9">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="HS7" s="9">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="HT7" s="9">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="HU7" s="9">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
